--- a/www/IndicatorsPerCountry/Albania_GDPperCapita_TerritorialRef_1946_2012_CCode_8.xlsx
+++ b/www/IndicatorsPerCountry/Albania_GDPperCapita_TerritorialRef_1946_2012_CCode_8.xlsx
@@ -267,13 +267,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Albania_GDPperCapita_TerritorialRef_1946_2012_CCode_8.xlsx
+++ b/www/IndicatorsPerCountry/Albania_GDPperCapita_TerritorialRef_1946_2012_CCode_8.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="93">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,208 +36,226 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>446</t>
+    <t>711</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>685</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1045</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>1089</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>1193</t>
-  </si>
-  <si>
-    <t>1269</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>1381</t>
-  </si>
-  <si>
-    <t>1451</t>
-  </si>
-  <si>
-    <t>1463</t>
-  </si>
-  <si>
-    <t>1511</t>
-  </si>
-  <si>
-    <t>1563</t>
-  </si>
-  <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>1675</t>
-  </si>
-  <si>
-    <t>1738</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1869</t>
-  </si>
-  <si>
-    <t>1932</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>2165</t>
-  </si>
-  <si>
-    <t>2273</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>2299</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2319</t>
-  </si>
-  <si>
-    <t>2331</t>
-  </si>
-  <si>
-    <t>2347</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>2373</t>
-  </si>
-  <si>
-    <t>2387</t>
-  </si>
-  <si>
-    <t>2400</t>
-  </si>
-  <si>
-    <t>2413</t>
-  </si>
-  <si>
-    <t>2428</t>
-  </si>
-  <si>
-    <t>2443</t>
-  </si>
-  <si>
-    <t>2459</t>
-  </si>
-  <si>
-    <t>2477</t>
-  </si>
-  <si>
-    <t>2499.40014397</t>
-  </si>
-  <si>
-    <t>1835.70614945</t>
-  </si>
-  <si>
-    <t>1764.00383422</t>
-  </si>
-  <si>
-    <t>1936.94943063</t>
-  </si>
-  <si>
-    <t>2067.46728183</t>
-  </si>
-  <si>
-    <t>2307.58411429</t>
-  </si>
-  <si>
-    <t>2481.8563087</t>
-  </si>
-  <si>
-    <t>2197.91225013</t>
-  </si>
-  <si>
-    <t>2405.34460956</t>
-  </si>
-  <si>
-    <t>2751.88532702</t>
-  </si>
-  <si>
-    <t>2962.27935715</t>
-  </si>
-  <si>
-    <t>3228.52337856</t>
-  </si>
-  <si>
-    <t>3397.68399482</t>
-  </si>
-  <si>
-    <t>3627.05840271</t>
-  </si>
-  <si>
-    <t>3864.39450302</t>
-  </si>
-  <si>
-    <t>4116.77596296</t>
-  </si>
-  <si>
-    <t>4367.43823061</t>
-  </si>
-  <si>
-    <t>4647.31378692</t>
-  </si>
-  <si>
-    <t>5010.03177789</t>
-  </si>
-  <si>
-    <t>5178.86690407</t>
-  </si>
-  <si>
-    <t>5374.99080987</t>
+    <t>953</t>
+  </si>
+  <si>
+    <t>1092</t>
+  </si>
+  <si>
+    <t>1243</t>
+  </si>
+  <si>
+    <t>1293</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1667</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>1882</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2491</t>
+  </si>
+  <si>
+    <t>2576</t>
+  </si>
+  <si>
+    <t>2670</t>
+  </si>
+  <si>
+    <t>2770</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>3080</t>
+  </si>
+  <si>
+    <t>3194</t>
+  </si>
+  <si>
+    <t>3322</t>
+  </si>
+  <si>
+    <t>3451</t>
+  </si>
+  <si>
+    <t>3623</t>
+  </si>
+  <si>
+    <t>3637</t>
+  </si>
+  <si>
+    <t>3649</t>
+  </si>
+  <si>
+    <t>3665</t>
+  </si>
+  <si>
+    <t>3681</t>
+  </si>
+  <si>
+    <t>3696</t>
+  </si>
+  <si>
+    <t>3716</t>
+  </si>
+  <si>
+    <t>3741</t>
+  </si>
+  <si>
+    <t>3762</t>
+  </si>
+  <si>
+    <t>3783</t>
+  </si>
+  <si>
+    <t>3805</t>
+  </si>
+  <si>
+    <t>3826</t>
+  </si>
+  <si>
+    <t>3846</t>
+  </si>
+  <si>
+    <t>3870</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>3920</t>
+  </si>
+  <si>
+    <t>3948</t>
+  </si>
+  <si>
+    <t>3983</t>
+  </si>
+  <si>
+    <t>2942.10059831345</t>
+  </si>
+  <si>
+    <t>2841.76516466455</t>
+  </si>
+  <si>
+    <t>3137.0239335031</t>
+  </si>
+  <si>
+    <t>3399.71018272432</t>
+  </si>
+  <si>
+    <t>3666.65056914009</t>
+  </si>
+  <si>
+    <t>3965.68531531917</t>
+  </si>
+  <si>
+    <t>3526.98564071555</t>
+  </si>
+  <si>
+    <t>3873.37315205246</t>
+  </si>
+  <si>
+    <t>4432.04263745532</t>
+  </si>
+  <si>
+    <t>4808.47961481352</t>
+  </si>
+  <si>
+    <t>5285.80909643499</t>
+  </si>
+  <si>
+    <t>5608.96234460107</t>
+  </si>
+  <si>
+    <t>6004.64523899215</t>
+  </si>
+  <si>
+    <t>6419.87039572498</t>
+  </si>
+  <si>
+    <t>6858.46704735724</t>
+  </si>
+  <si>
+    <t>7347.33012304625</t>
+  </si>
+  <si>
+    <t>7866.15774715018</t>
+  </si>
+  <si>
+    <t>8522.12984128861</t>
+  </si>
+  <si>
+    <t>8859.47159720472</t>
+  </si>
+  <si>
+    <t>9222.97275207776</t>
+  </si>
+  <si>
+    <t>9484</t>
+  </si>
+  <si>
+    <t>9592</t>
+  </si>
+  <si>
+    <t>9660</t>
+  </si>
+  <si>
+    <t>9808</t>
+  </si>
+  <si>
+    <t>10032</t>
+  </si>
+  <si>
+    <t>10342</t>
   </si>
   <si>
     <t>Description</t>
@@ -2738,6 +2756,108 @@
         <v>74</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2753,50 +2873,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
